--- a/data/trans_camb/P25A_12_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_12_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36,43</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>71,66</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>65,74</t>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,1</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,68</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1,66</t>
+          <t>-2,9; 7,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 3,85</t>
+          <t>-2,21; 7,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 78,53</t>
+          <t>-1,15; 9,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 7,91</t>
+          <t>-9,57; 2,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 6,15</t>
+          <t>-2,51; 5,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,22; 85,36</t>
+          <t>-1,87; 7,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 3,83</t>
+          <t>-3,44; 6,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 4,03</t>
+          <t>1,71; 15,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>45,22; 81,6</t>
+          <t>-8,72; 8,13</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-14,99; 4,43</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 5,92</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 5,16</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 11,17</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 3,47</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-6,84; 3,34</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-40,29%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>67,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1750,68%</t>
+          <t>153,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,59%</t>
+          <t>-46,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>65,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1706,94%</t>
+          <t>59,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>37,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,23%</t>
+          <t>183,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2118,91%</t>
+          <t>-2,22%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-29,78%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>51,15%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>49,3%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>177,69%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-19,63%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-19,73%</t>
         </is>
       </c>
     </row>
@@ -801,37 +939,67 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>-63,07; —</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 264,8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-32,37; 395,42</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-45,4; 313,46</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>705,45; 4313,24</t>
+          <t>-33,09; 441,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,31; 224,78</t>
+          <t>-55,35; 288,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,17; 229,18</t>
+          <t>4,78; 667,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1052,96; 4604,85</t>
+          <t>-53,06; 105,04</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-66,57; 43,93</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-38,02; 308,65</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-40,37; 290,41</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>32,77; 613,39</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-57,54; 60,36</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-57,01; 62,53</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>37,59</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,05</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>40,91</t>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,69</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,91</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,49</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 2,25</t>
+          <t>-4,68; 2,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,69</t>
+          <t>-4,4; 2,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 68,45</t>
+          <t>-3,15; 5,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 3,45</t>
+          <t>-2,34; 8,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 2,8</t>
+          <t>-1,8; 9,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,89; 61,99</t>
+          <t>-6,63; 4,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,06</t>
+          <t>-7,91; 3,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 1,54</t>
+          <t>-2,8; 9,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>24,79; 57,98</t>
+          <t>-3,27; 9,74</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 12,39</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,16; 1,91</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 1,72</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 6,18</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 7,4</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 8,62</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-19,39%</t>
+          <t>-19,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,11%</t>
+          <t>-8,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1287,93%</t>
+          <t>36,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,37%</t>
+          <t>68,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,99%</t>
+          <t>95,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>643,46%</t>
+          <t>-13,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-15,5%</t>
+          <t>-27,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-22,58%</t>
+          <t>53,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>880,75%</t>
+          <t>27,43%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>76,55%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-15,48%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-21,79%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>46,77%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>41,76%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>82,93%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-85,58; 230,73</t>
+          <t>-86,85; 217,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-81,57; 252,18</t>
+          <t>-85,18; 224,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>140,5; 4362,4</t>
+          <t>-66,49; 428,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-66,47; 94,63</t>
+          <t>-43,8; 469,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-72,34; 88,02</t>
+          <t>-47,92; 722,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>227,61; 1532,29</t>
+          <t>-66,29; 126,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,39; 82,12</t>
+          <t>-72,13; 99,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,65; 55,86</t>
+          <t>-32,31; 293,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>379,3; 1717,18</t>
+          <t>-26,26; 132,28</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-6,15; 237,77</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-59,78; 67,15</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-62,37; 66,14</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-26,01; 207,27</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-13,49; 153,85</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>4,38; 227,82</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>71,99</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,98</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>52,2</t>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,19</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,69</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,65</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,99</t>
+          <t>-2,5; 3,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 0,09</t>
+          <t>-4,94; -0,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,08; 90,17</t>
+          <t>-3,41; 2,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 5,78</t>
+          <t>-0,96; 7,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 3,44</t>
+          <t>-4,21; 4,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,16; 56,23</t>
+          <t>-1,32; 6,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 3,62</t>
+          <t>-2,78; 4,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 1,23</t>
+          <t>-0,53; 7,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>38,39; 64,54</t>
+          <t>-1,03; 10,15</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 11,27</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 4,14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 1,54</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 4,34</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 7,3</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 6,36</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-67,43%</t>
+          <t>-70,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2618,78%</t>
+          <t>-5,46%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>101,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,7%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>593,1%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-21,86%</t>
+          <t>54,92%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1059,45%</t>
+          <t>55,64%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>58,91%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>35,65%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-12,34%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>34,87%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>61,29%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>37,49%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,14; 293,88</t>
+          <t>-59,99; 237,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 42,78</t>
+          <t>-100,0; 50,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1174,91; 6165,94</t>
+          <t>-73,83; 168,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,39; 129,19</t>
+          <t>-32,45; 495,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,15; 81,38</t>
+          <t>-57,68; 147,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>224,86; 1142,73</t>
+          <t>-17,83; 171,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,44; 104,12</t>
+          <t>-35,39; 114,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,85; 36,41</t>
+          <t>-13,9; 170,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>520,13; 1817,37</t>
+          <t>-10,61; 146,92</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-6,93; 181,53</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-17,56; 131,33</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-49,35; 52,41</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-18,77; 140,98</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 157,21</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-12,27; 115,52</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>39,32</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>45,68</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>44,61</t>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4,0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,58</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,7</t>
+          <t>-3,06; 3,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 5,49</t>
+          <t>-1,13; 5,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,07; 62,65</t>
+          <t>-0,03; 7,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 3,07</t>
+          <t>-2,87; 7,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 4,92</t>
+          <t>0,83; 10,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,37; 59,26</t>
+          <t>-6,08; 2,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 2,04</t>
+          <t>-3,91; 4,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 4,02</t>
+          <t>-1,4; 8,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>33,53; 56,54</t>
+          <t>-2,56; 9,98</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 10,23</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,7; 1,58</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 3,73</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 6,95</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 6,76</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 8,78</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,68%</t>
+          <t>-6,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>58,97%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1135,68%</t>
+          <t>102,33%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-13,56%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>127,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>485,34%</t>
+          <t>-14,31%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-11,8%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>36,71%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>682,2%</t>
+          <t>25,05%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>32,29%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-12,3%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>17,78%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>53,36%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>24,06%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>58,79%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,54; 146,94</t>
+          <t>-61,49; 159,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 300,52</t>
+          <t>-26,78; 272,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>397,24; 2670,59</t>
+          <t>-3,26; 341,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 43,14</t>
+          <t>-31,11; 145,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,42; 68,43</t>
+          <t>5,66; 511,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>270,46; 794,55</t>
+          <t>-50,91; 38,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-44,88; 38,63</t>
+          <t>-33,84; 69,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 79,17</t>
+          <t>-14,36; 114,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>437,62; 1060,8</t>
+          <t>-16,71; 97,24</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-14,3; 110,5</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-44,64; 30,27</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-18,28; 70,3</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>6,62; 128,63</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-11,85; 80,75</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>10,23; 140,65</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>60,71</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>52,06</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>55,33</t>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>5,97</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3,26</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,29</t>
+          <t>-3,15; 4,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 3,66</t>
+          <t>-3,24; 3,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>41,89; 77,78</t>
+          <t>-1,43; 7,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 7,09</t>
+          <t>0,49; 12,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 8,3</t>
+          <t>-4,5; 9,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>39,14; 64,9</t>
+          <t>-2,89; 6,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 4,35</t>
+          <t>-1,67; 7,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 4,79</t>
+          <t>2,46; 15,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>44,79; 64,57</t>
+          <t>-7,25; 8,15</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-9,75; 5,58</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 4,53</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 4,99</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 10,29</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 7,79</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 5,31</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1469,29%</t>
+          <t>67,14%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>84,28%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>745,24%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>46,19%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>124,05%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>991,64%</t>
+          <t>4,11%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-10,53%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>24,85%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>31,78%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>104,1%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>27,85%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,73; 191,25</t>
+          <t>-53,52; 193,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-57,04; 154,28</t>
+          <t>-57,62; 167,17</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>737,86; 3279,38</t>
+          <t>-28,39; 268,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 147,39</t>
+          <t>0,74; 241,81</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 195,04</t>
+          <t>-32,38; 128,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>415,32; 1308,06</t>
+          <t>-29,71; 146,57</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 105,91</t>
+          <t>-19,62; 156,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 118,93</t>
+          <t>25,28; 314,41</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>617,91; 1534,49</t>
+          <t>-36,33; 65,51</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-42,72; 38,21</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-25,19; 106,76</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-17,74; 118,9</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>24,69; 228,71</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-12,79; 79,26</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-25,64; 42,67</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>37,88</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>34,67</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>36,02</t>
+          <t>6,79</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5,4</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>4,12</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 10,45</t>
+          <t>-6,04; 9,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 5,24</t>
+          <t>-8,08; 5,19</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>4,09; 80,17</t>
+          <t>-8,95; 5,67</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 4,37</t>
+          <t>-5,91; 4,06</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 3,63</t>
+          <t>-1,57; 6,87</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>16,25; 53,36</t>
+          <t>-7,9; 4,18</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 5,4</t>
+          <t>-6,85; 6,65</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 3,3</t>
+          <t>-6,63; 6,17</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>19,24; 52,42</t>
+          <t>-0,96; 13,73</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 12,54</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 5,11</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 4,71</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 4,54</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 8,88</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 8,84</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>69,09%</t>
+          <t>60,76%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>793,09%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-8,08%</t>
+          <t>-13,37%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-21,38%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>443,35%</t>
+          <t>-9,45%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>-6,42%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-11,75%</t>
+          <t>-1,38%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>554,89%</t>
+          <t>87,44%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>59,01%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>13,21%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-4,44%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>56,49%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>66,27%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-69,58; 637,97</t>
+          <t>-69,28; 496,51</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-86,39; 289,34</t>
+          <t>-87,98; 290,91</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 3599,06</t>
+          <t>-85,29; 324,43</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-58,06; 103,92</t>
+          <t>-73,14; 188,63</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-69,5; 84,83</t>
+          <t>-54,8; 808,04</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>144,22; 1009,58</t>
+          <t>-64,25; 89,22</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-43,09; 130,02</t>
+          <t>-63,11; 135,52</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-55,93; 82,56</t>
+          <t>-58,66; 140,17</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>229,18; 1170,11</t>
+          <t>-11,63; 284,51</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-16,14; 227,18</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-45,0; 122,84</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-55,91; 109,73</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-54,06; 111,18</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-10,03; 203,05</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-12,14; 235,23</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
           <t>0,54</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>50,42</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>47,21</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>48,92</t>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,25</t>
+          <t>-1,12; 2,29</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,71</t>
+          <t>-1,54; 1,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>38,26; 61,53</t>
+          <t>0,07; 3,74</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 2,24</t>
+          <t>-0,36; 4,04</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,08</t>
+          <t>0,51; 4,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>40,45; 54,26</t>
+          <t>-1,39; 2,55</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,78</t>
+          <t>-1,48; 2,56</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,31</t>
+          <t>1,86; 6,35</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>43,08; 54,7</t>
+          <t>0,46; 6,09</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 5,78</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,74; 2,05</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 1,72</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 4,75</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 4,44</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 4,4</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1514,08%</t>
+          <t>51,35%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>53,27%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>655,67%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>57,82%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>922,1%</t>
+          <t>30,8%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>22,57%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>11,63%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>55,79%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>31,19%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>31,3%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-25,89; 87,23</t>
+          <t>-25,85; 90,47</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-35,69; 68,73</t>
+          <t>-34,91; 76,62</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>928,25; 2353,0</t>
+          <t>-1,84; 143,86</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 37,55</t>
+          <t>-6,56; 94,89</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 33,64</t>
+          <t>7,87; 128,03</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>475,68; 867,11</t>
+          <t>-17,34; 42,69</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 38,39</t>
+          <t>-18,26; 41,86</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 28,22</t>
+          <t>22,89; 105,95</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>718,4; 1169,87</t>
+          <t>3,69; 62,78</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 53,03</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-12,03; 44,34</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-18,43; 36,6</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>20,72; 101,29</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>9,91; 61,17</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>10,03; 59,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
